--- a/biology/Écologie/Système_écologique_fermé/Système_écologique_fermé.xlsx
+++ b/biology/Écologie/Système_écologique_fermé/Système_écologique_fermé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_%C3%A9cologique_ferm%C3%A9</t>
+          <t>Système_écologique_fermé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un système écologique fermé (de l'anglais : closed ecological system), parfois appelé système écologique clos, désigne un écosystème qui ne réalise pas d'échanges de matière avec l'extérieur.
 Bien que la Terre elle-même correspond presque à cette définition (si on ignore les apports de matières par la chute de météorite et la perte de gaz et de poussières en haute atmosphère), ce terme est plus souvent utilisé pour décrire certains écosystèmes artificiels. Un système écologique clos n'est jamais un système réellement clos, puisque l'énergie (lumière et chaleur) peut entrer et sortir du système.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_%C3%A9cologique_ferm%C3%A9</t>
+          <t>Système_écologique_fermé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Principaux systèmes écologiques fermés artificiels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Biosphère II
 MELiSSA
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_%C3%A9cologique_ferm%C3%A9</t>
+          <t>Système_écologique_fermé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Écosphère artificielle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une éco-sphère artificielle, qui prend son modèle sur l'écosphère naturelle, est une boule de verre dans laquelle se maintient un écosystème fermé autonome. Elle est principalement vendue comme cadeau ou curiosité. Elle peut inclure des crevettes microscopiques, des algues, des graviers, des coquillages décoratifs, ou des gorgones.
 </t>
